--- a/premise/data/additional_inventories/lci-electrolyzer-AEC-eol.xlsx
+++ b/premise/data/additional_inventories/lci-electrolyzer-AEC-eol.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="866" documentId="13_ncr:1_{D0FB8C27-5AAD-4D83-B52A-9764F8EB4256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B80C0034-787B-4C1B-A0F3-7F1818E73B41}"/>
+  <xr:revisionPtr revIDLastSave="892" documentId="13_ncr:1_{D0FB8C27-5AAD-4D83-B52A-9764F8EB4256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7977FA0-2747-4C95-AD29-0B25B94973C9}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Electrolyzer_AEC_EOL" sheetId="7" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="btbl4fnb" localSheetId="0">Electrolyzer_AEC_EOL!$H$73</definedName>
+    <definedName name="btbl4fnb" localSheetId="0">Electrolyzer_AEC_EOL!$H$75</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="88">
   <si>
     <t>Activity</t>
   </si>
@@ -165,12 +165,6 @@
     <t>electrolyzer_AEC_EoL</t>
   </si>
   <si>
-    <t>treatment of used electrolyzer stack, 1MWe, AEC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92% recovery rate is assumed according to Mori (2019) </t>
-  </si>
-  <si>
     <t>Mori et al. (2019). Case Studies with New Strategies in Dismantling and Recycling Stage</t>
   </si>
   <si>
@@ -180,9 +174,6 @@
     <t>SE</t>
   </si>
   <si>
-    <t>treatment of used electrolyzer stack, 1MWe, AEC, platinum recovery, hydrometallurgy</t>
-  </si>
-  <si>
     <t>76% recovery rate is assumed according to Duclos (2017) and Stropnik (2019). For 1 unit of stack, we need 1.3kg platinum</t>
   </si>
   <si>
@@ -277,6 +268,36 @@
   </si>
   <si>
     <t>except for nickel, aluminium and platinum, other metals are incinerated (silver, zirconium, potassium, graphite, cobalt etc.)</t>
+  </si>
+  <si>
+    <t>treatment of used electrolyzer Stack, 1MWe, AEC, platinum recovery, hydrometallurgy</t>
+  </si>
+  <si>
+    <t>treatment of used electrolyzer Stack, 1MWe, AEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92% recovery rate is assumed according to Mori (2019). For 1 unit of stack, we need 2458.25kg nickel </t>
+  </si>
+  <si>
+    <t>waste steel</t>
+  </si>
+  <si>
+    <t>market for waste steel</t>
+  </si>
+  <si>
+    <t>Europe without Switzerland</t>
+  </si>
+  <si>
+    <t>waste plastic, mixture</t>
+  </si>
+  <si>
+    <t>market for waste plastic, mixture</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>taken from "treatment of electrolyzer stack, 1MWe, AEC"</t>
   </si>
 </sst>
 </file>
@@ -666,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18443797-B7F6-46C5-AD72-6ECC2A3EC1FA}">
-  <dimension ref="A1:R89"/>
+  <dimension ref="A1:R91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="44" zoomScaleNormal="45" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="44" zoomScaleNormal="45" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -678,8 +699,8 @@
     <col min="2" max="2" width="19.54296875" customWidth="1"/>
     <col min="3" max="3" width="29.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="68.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="137" customWidth="1"/>
     <col min="9" max="9" width="8.1796875" bestFit="1" customWidth="1"/>
@@ -707,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -729,7 +750,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -793,7 +814,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -941,7 +962,7 @@
     <row r="13" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="str">
         <f>B3</f>
-        <v>treatment of used electrolyzer stack, 1MWe, AEC</v>
+        <v>treatment of used electrolyzer Stack, 1MWe, AEC</v>
       </c>
       <c r="B13" s="7">
         <f>160000/160000</f>
@@ -972,13 +993,13 @@
     </row>
     <row r="14" spans="1:18" ht="31" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B14" s="7">
         <v>1</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>9</v>
@@ -1004,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1027,7 +1048,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1117,7 +1138,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1252,7 +1273,7 @@
     <row r="26" spans="1:17" s="2" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="str">
         <f>B16</f>
-        <v>treatment of used electrolyzer stack, 1MWe, AEC, platinum recovery, hydrometallurgy</v>
+        <v>treatment of used electrolyzer Stack, 1MWe, AEC, platinum recovery, hydrometallurgy</v>
       </c>
       <c r="B26" s="7">
         <f>160000/160000</f>
@@ -1292,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1315,7 +1336,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1403,7 +1424,7 @@
         <v>5</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1537,7 +1558,7 @@
     <row r="38" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="str">
         <f>B28</f>
-        <v>treatment of used electrolyzer stack, 1MWe, AEC</v>
+        <v>treatment of used electrolyzer Stack, 1MWe, AEC</v>
       </c>
       <c r="B38" s="7">
         <f>160000/160000</f>
@@ -1571,7 +1592,7 @@
     </row>
     <row r="39" spans="1:17" ht="31" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B39" s="7">
         <v>1</v>
@@ -1587,7 +1608,7 @@
         <v>15</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
@@ -1624,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -1647,7 +1668,7 @@
         <v>3</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -1738,7 +1759,7 @@
         <v>5</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -1873,7 +1894,7 @@
     <row r="51" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="str">
         <f>B41</f>
-        <v>treatment of used electrolyzer stack, 1MWe, AEC</v>
+        <v>treatment of used electrolyzer Stack, 1MWe, AEC</v>
       </c>
       <c r="B51" s="5">
         <v>-1</v>
@@ -1895,7 +1916,7 @@
         <v>used electrolyzer stack, 1MWe, AEC</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
@@ -1907,7 +1928,7 @@
     </row>
     <row r="52" spans="1:17" ht="31" x14ac:dyDescent="0.35">
       <c r="A52" s="8" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="B52" s="17">
         <f>-1.3/1.315</f>
@@ -1924,10 +1945,10 @@
         <v>15</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
@@ -1941,7 +1962,7 @@
     </row>
     <row r="53" spans="1:17" ht="31" x14ac:dyDescent="0.35">
       <c r="A53" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B53" s="18">
         <v>-1303.7270000000001</v>
@@ -1960,7 +1981,7 @@
         <v>34</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
@@ -1972,58 +1993,80 @@
       <c r="P53" s="1"/>
       <c r="Q53" s="2"/>
     </row>
+    <row r="54" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B54" s="18">
+        <f>-60583/3</f>
+        <v>-20194.333333333332</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="2"/>
+    </row>
     <row r="55" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="11"/>
-      <c r="M55" s="11"/>
-      <c r="N55" s="11"/>
-      <c r="O55" s="11"/>
+      <c r="A55" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" s="18">
+        <f>-579/3</f>
+        <v>-193</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="2"/>
     </row>
-    <row r="56" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="11"/>
-      <c r="K56" s="11"/>
-      <c r="L56" s="11"/>
-      <c r="M56" s="11"/>
-      <c r="N56" s="11"/>
-      <c r="O56" s="11"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="2"/>
-    </row>
-    <row r="57" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>26</v>
+    <row r="57" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A57" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>78</v>
       </c>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
@@ -2039,13 +2082,14 @@
       <c r="N57" s="11"/>
       <c r="O57" s="11"/>
       <c r="P57" s="1"/>
-    </row>
-    <row r="58" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="Q57" s="2"/>
+    </row>
+    <row r="58" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B58" s="11">
-        <v>-1</v>
+        <v>3</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
@@ -2060,15 +2104,15 @@
       <c r="M58" s="11"/>
       <c r="N58" s="11"/>
       <c r="O58" s="11"/>
-      <c r="P58"/>
-      <c r="Q58"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="2"/>
     </row>
     <row r="59" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="11" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
@@ -2083,15 +2127,14 @@
       <c r="M59" s="11"/>
       <c r="N59" s="11"/>
       <c r="O59" s="11"/>
-      <c r="P59"/>
-      <c r="Q59"/>
+      <c r="P59" s="1"/>
     </row>
     <row r="60" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>57</v>
+        <v>2</v>
+      </c>
+      <c r="B60" s="11">
+        <v>-1</v>
       </c>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
@@ -2111,10 +2154,10 @@
     </row>
     <row r="61" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
@@ -2134,10 +2177,10 @@
     </row>
     <row r="62" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
@@ -2156,10 +2199,12 @@
       <c r="Q62"/>
     </row>
     <row r="63" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B63" s="11"/>
+      <c r="A63" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
@@ -2177,80 +2222,39 @@
       <c r="Q63"/>
     </row>
     <row r="64" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A64" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D64" s="15" t="s">
+      <c r="A64" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E64" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="G64" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="H64" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="I64" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="J64" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K64" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="L64" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="M64" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="N64" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="O64" s="15" t="s">
-        <v>25</v>
-      </c>
+      <c r="B64" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
       <c r="P64"/>
       <c r="Q64"/>
     </row>
-    <row r="65" spans="1:17" s="2" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="A65" s="12" t="str">
-        <f>B55</f>
-        <v>treatment of used electrolyzer stack, 1MWe, AEC, platinum recovery, hydrometallurgy</v>
-      </c>
-      <c r="B65" s="11">
-        <v>-1</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D65" s="11" t="str">
-        <f>B62</f>
-        <v>unit</v>
-      </c>
+    <row r="65" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A65" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
       <c r="E65" s="11"/>
-      <c r="F65" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" s="11" t="str">
-        <f>B60</f>
-        <v>waste platinum from used electrolyzer stack, 1MWe, AEC</v>
-      </c>
-      <c r="H65" s="12" t="s">
-        <v>59</v>
-      </c>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
       <c r="I65" s="11"/>
       <c r="J65" s="11"/>
       <c r="K65" s="11"/>
@@ -2262,58 +2266,80 @@
       <c r="Q65"/>
     </row>
     <row r="66" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B66" s="19">
-        <f>154</f>
-        <v>154</v>
-      </c>
-      <c r="C66" s="11" t="s">
+      <c r="A66" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G66" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H66" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I66" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J66" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="K66" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L66" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M66" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N66" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="O66" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="P66"/>
+      <c r="Q66"/>
+    </row>
+    <row r="67" spans="1:17" s="2" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="A67" s="12" t="str">
+        <f>B57</f>
+        <v>treatment of used electrolyzer Stack, 1MWe, AEC, platinum recovery, hydrometallurgy</v>
+      </c>
+      <c r="B67" s="11">
+        <v>-1</v>
+      </c>
+      <c r="C67" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D66" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G66" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="H66" s="11"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="11"/>
-      <c r="K66" s="11"/>
-      <c r="L66" s="11"/>
-      <c r="M66" s="11"/>
-      <c r="N66" s="11"/>
-      <c r="O66" s="11"/>
-      <c r="P66" s="1"/>
-    </row>
-    <row r="67" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B67" s="19">
-        <f>2500</f>
-        <v>2500</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>9</v>
+      <c r="D67" s="11" t="str">
+        <f>B64</f>
+        <v>unit</v>
       </c>
       <c r="E67" s="11"/>
       <c r="F67" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G67" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H67" s="11"/>
+        <v>14</v>
+      </c>
+      <c r="G67" s="11" t="str">
+        <f>B62</f>
+        <v>waste platinum from used electrolyzer stack, 1MWe, AEC</v>
+      </c>
+      <c r="H67" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="I67" s="11"/>
       <c r="J67" s="11"/>
       <c r="K67" s="11"/>
@@ -2321,15 +2347,16 @@
       <c r="M67" s="11"/>
       <c r="N67" s="11"/>
       <c r="O67" s="11"/>
-      <c r="P67" s="1"/>
-    </row>
-    <row r="68" spans="1:17" s="2" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="P67"/>
+      <c r="Q67"/>
+    </row>
+    <row r="68" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B68" s="13">
-        <f>6.58</f>
-        <v>6.58</v>
+        <v>57</v>
+      </c>
+      <c r="B68" s="19">
+        <f>154</f>
+        <v>154</v>
       </c>
       <c r="C68" s="11" t="s">
         <v>26</v>
@@ -2342,7 +2369,7 @@
         <v>15</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H68" s="11"/>
       <c r="I68" s="11"/>
@@ -2354,16 +2381,16 @@
       <c r="O68" s="11"/>
       <c r="P68" s="1"/>
     </row>
-    <row r="69" spans="1:17" s="2" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B69" s="13">
-        <f>374</f>
-        <v>374</v>
+        <v>31</v>
+      </c>
+      <c r="B69" s="19">
+        <f>2500</f>
+        <v>2500</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D69" s="11" t="s">
         <v>9</v>
@@ -2372,8 +2399,8 @@
       <c r="F69" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G69" s="12" t="s">
-        <v>63</v>
+      <c r="G69" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="H69" s="11"/>
       <c r="I69" s="11"/>
@@ -2385,13 +2412,13 @@
       <c r="O69" s="11"/>
       <c r="P69" s="1"/>
     </row>
-    <row r="70" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17" s="2" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A70" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B70" s="13">
-        <f>97.4</f>
-        <v>97.4</v>
+        <f>6.58</f>
+        <v>6.58</v>
       </c>
       <c r="C70" s="11" t="s">
         <v>26</v>
@@ -2403,8 +2430,8 @@
       <c r="F70" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G70" s="12" t="s">
-        <v>28</v>
+      <c r="G70" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="H70" s="11"/>
       <c r="I70" s="11"/>
@@ -2415,18 +2442,17 @@
       <c r="N70" s="11"/>
       <c r="O70" s="11"/>
       <c r="P70" s="1"/>
-      <c r="Q70" s="2"/>
-    </row>
-    <row r="71" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:17" s="2" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A71" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B71" s="13">
-        <f>816</f>
-        <v>816</v>
+        <f>374</f>
+        <v>374</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D71" s="11" t="s">
         <v>9</v>
@@ -2436,7 +2462,7 @@
         <v>15</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H71" s="11"/>
       <c r="I71" s="11"/>
@@ -2447,18 +2473,17 @@
       <c r="N71" s="11"/>
       <c r="O71" s="11"/>
       <c r="P71" s="1"/>
-      <c r="Q71" s="2"/>
     </row>
     <row r="72" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="12" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="B72" s="13">
-        <f>35</f>
-        <v>35</v>
+        <f>97.4</f>
+        <v>97.4</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D72" s="11" t="s">
         <v>9</v>
@@ -2468,7 +2493,7 @@
         <v>15</v>
       </c>
       <c r="G72" s="12" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="H72" s="11"/>
       <c r="I72" s="11"/>
@@ -2482,29 +2507,27 @@
       <c r="Q72" s="2"/>
     </row>
     <row r="73" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A73" s="13" t="s">
-        <v>68</v>
+      <c r="A73" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B73" s="13">
-        <f>1096.4</f>
-        <v>1096.4000000000001</v>
+        <f>816</f>
+        <v>816</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E73" s="11"/>
       <c r="F73" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G73" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H73" s="11" t="s">
-        <v>69</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="H73" s="11"/>
       <c r="I73" s="11"/>
       <c r="J73" s="11"/>
       <c r="K73" s="11"/>
@@ -2515,26 +2538,26 @@
       <c r="P73" s="1"/>
       <c r="Q73" s="2"/>
     </row>
-    <row r="74" spans="1:17" ht="31" x14ac:dyDescent="0.35">
-      <c r="A74" s="14" t="s">
-        <v>32</v>
+    <row r="74" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A74" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B74" s="13">
-        <f>-2640</f>
-        <v>-2640</v>
+        <f>35</f>
+        <v>35</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E74" s="11"/>
       <c r="F74" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G74" s="12" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="H74" s="11"/>
       <c r="I74" s="11"/>
@@ -2547,28 +2570,30 @@
       <c r="P74" s="1"/>
       <c r="Q74" s="2"/>
     </row>
-    <row r="75" spans="1:17" ht="31" x14ac:dyDescent="0.35">
-      <c r="A75" s="14" t="s">
-        <v>70</v>
+    <row r="75" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A75" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="B75" s="13">
-        <f>-1.76</f>
-        <v>-1.76</v>
+        <f>1096.4</f>
+        <v>1096.4000000000001</v>
       </c>
       <c r="C75" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E75" s="11"/>
       <c r="F75" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G75" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H75" s="11"/>
+        <v>38</v>
+      </c>
+      <c r="H75" s="11" t="s">
+        <v>66</v>
+      </c>
       <c r="I75" s="11"/>
       <c r="J75" s="11"/>
       <c r="K75" s="11"/>
@@ -2576,55 +2601,77 @@
       <c r="M75" s="11"/>
       <c r="N75" s="11"/>
       <c r="O75" s="11"/>
-    </row>
-    <row r="77" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A77" s="4" t="s">
+      <c r="P75" s="1"/>
+      <c r="Q75" s="2"/>
+    </row>
+    <row r="76" spans="1:17" ht="31" x14ac:dyDescent="0.35">
+      <c r="A76" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B76" s="13">
+        <f>-2640</f>
+        <v>-2640</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
+      <c r="O76" s="11"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="2"/>
+    </row>
+    <row r="77" spans="1:17" ht="31" x14ac:dyDescent="0.35">
+      <c r="A77" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B77" s="13">
+        <f>-1.76</f>
+        <v>-1.76</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="11"/>
+      <c r="O77" s="11"/>
+    </row>
+    <row r="79" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A79" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
-      <c r="K77" s="5"/>
-      <c r="L77" s="5"/>
-      <c r="M77" s="5"/>
-      <c r="N77" s="5"/>
-      <c r="O77" s="5"/>
-    </row>
-    <row r="78" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A78" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
-      <c r="K78" s="5"/>
-      <c r="L78" s="5"/>
-      <c r="M78" s="5"/>
-      <c r="N78" s="5"/>
-      <c r="O78" s="5"/>
-    </row>
-    <row r="79" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A79" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>26</v>
+      <c r="B79" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
@@ -2642,10 +2689,10 @@
     </row>
     <row r="80" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B80" s="5">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
@@ -2663,10 +2710,10 @@
     </row>
     <row r="81" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
@@ -2684,10 +2731,10 @@
     </row>
     <row r="82" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>61</v>
+        <v>2</v>
+      </c>
+      <c r="B82" s="5">
+        <v>1</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -2705,10 +2752,10 @@
     </row>
     <row r="83" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
@@ -2726,10 +2773,10 @@
     </row>
     <row r="84" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
@@ -2746,10 +2793,12 @@
       <c r="O84" s="5"/>
     </row>
     <row r="85" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A85" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B85" s="5"/>
+      <c r="A85" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
@@ -2765,79 +2814,37 @@
       <c r="O85" s="5"/>
     </row>
     <row r="86" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A86" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D86" s="4" t="s">
+      <c r="A86" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E86" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H86" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I86" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J86" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K86" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L86" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M86" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N86" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O86" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="B86" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="5"/>
+      <c r="M86" s="5"/>
+      <c r="N86" s="5"/>
+      <c r="O86" s="5"/>
     </row>
     <row r="87" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A87" s="5" t="str">
-        <f>B77</f>
-        <v>cyanex production</v>
-      </c>
-      <c r="B87" s="5">
-        <v>1</v>
-      </c>
-      <c r="C87" s="5" t="str">
-        <f>B79</f>
-        <v>RER</v>
-      </c>
-      <c r="D87" s="5" t="str">
-        <f>B84</f>
-        <v>kilogram</v>
-      </c>
+      <c r="A87" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
       <c r="E87" s="5"/>
-      <c r="F87" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" s="5" t="str">
-        <f>B82</f>
-        <v>cyanex</v>
-      </c>
-      <c r="H87" s="5" t="s">
-        <v>72</v>
-      </c>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
       <c r="I87" s="5"/>
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
@@ -2847,60 +2854,78 @@
       <c r="O87" s="5"/>
     </row>
     <row r="88" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A88" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B88" s="18">
-        <f>61.6/154</f>
-        <v>0.4</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G88" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H88" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5"/>
-      <c r="K88" s="5"/>
-      <c r="L88" s="5"/>
-      <c r="M88" s="5"/>
-      <c r="N88" s="5"/>
-      <c r="O88" s="5"/>
+      <c r="A88" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K88" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L88" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M88" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N88" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O88" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="89" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A89" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B89" s="18">
-        <f>135/154</f>
-        <v>0.87662337662337664</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>9</v>
+      <c r="A89" s="5" t="str">
+        <f>B79</f>
+        <v>cyanex production</v>
+      </c>
+      <c r="B89" s="5">
+        <v>1</v>
+      </c>
+      <c r="C89" s="5" t="str">
+        <f>B81</f>
+        <v>RER</v>
+      </c>
+      <c r="D89" s="5" t="str">
+        <f>B86</f>
+        <v>kilogram</v>
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G89" s="5" t="s">
-        <v>77</v>
+        <v>14</v>
+      </c>
+      <c r="G89" s="5" t="str">
+        <f>B84</f>
+        <v>cyanex</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
@@ -2910,6 +2935,70 @@
       <c r="N89" s="5"/>
       <c r="O89" s="5"/>
     </row>
+    <row r="90" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A90" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B90" s="18">
+        <f>61.6/154</f>
+        <v>0.4</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5"/>
+      <c r="M90" s="5"/>
+      <c r="N90" s="5"/>
+      <c r="O90" s="5"/>
+    </row>
+    <row r="91" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A91" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B91" s="18">
+        <f>135/154</f>
+        <v>0.87662337662337664</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5"/>
+      <c r="L91" s="5"/>
+      <c r="M91" s="5"/>
+      <c r="N91" s="5"/>
+      <c r="O91" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
